--- a/data/trans_orig/iP30KDB2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4C7D73-DA15-4C24-9E48-BA9C3D0F3A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6F6746-02C9-4FB3-ABC4-B9246765E13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33B36880-4A23-4FD3-B6E6-16D914D02E88}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{04A3A728-086C-4446-A889-351E51A62067}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si toman frutos secos con regularidad (al menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,259 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDA5FFB-63E0-4368-B2A8-8237D885859A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BDED94-7128-4577-9F4F-655DEEA8A62B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -850,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D4" s="7">
+        <v>33931</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>35705</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>69635</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19768</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>42408</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>34474</v>
+        <v>250192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>33597</v>
+        <v>297482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>91</v>
+        <v>688</v>
       </c>
       <c r="N7" s="7">
-        <v>68071</v>
+        <v>547674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>21039</v>
+        <v>201640</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="I8" s="7">
-        <v>16557</v>
+        <v>207768</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>53</v>
+        <v>567</v>
       </c>
       <c r="N8" s="7">
-        <v>37596</v>
+        <v>409408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>360</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>288130</v>
+        <v>56850</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>328</v>
+        <v>111</v>
       </c>
       <c r="I10" s="7">
-        <v>239497</v>
+        <v>86634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>688</v>
+        <v>198</v>
       </c>
       <c r="N10" s="7">
-        <v>527628</v>
+        <v>143483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="D11" s="7">
-        <v>193196</v>
+        <v>89336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="I11" s="7">
-        <v>201757</v>
+        <v>94505</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>567</v>
+        <v>257</v>
       </c>
       <c r="N11" s="7">
-        <v>394952</v>
+        <v>183841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>111</v>
+        <v>458</v>
       </c>
       <c r="D13" s="7">
-        <v>83826</v>
+        <v>340973</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>87</v>
+        <v>519</v>
       </c>
       <c r="I13" s="7">
-        <v>58426</v>
+        <v>419820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>198</v>
+        <v>977</v>
       </c>
       <c r="N13" s="7">
-        <v>142251</v>
+        <v>760793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>122</v>
+        <v>456</v>
       </c>
       <c r="D14" s="7">
-        <v>88668</v>
+        <v>310744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>135</v>
+        <v>421</v>
       </c>
       <c r="I14" s="7">
-        <v>89604</v>
+        <v>324913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>257</v>
+        <v>877</v>
       </c>
       <c r="N14" s="7">
-        <v>178273</v>
+        <v>635657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>519</v>
-      </c>
-      <c r="D16" s="7">
-        <v>406430</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>459</v>
-      </c>
-      <c r="I16" s="7">
-        <v>332691</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>978</v>
-      </c>
-      <c r="N16" s="7">
-        <v>739121</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>421</v>
-      </c>
-      <c r="D17" s="7">
-        <v>302903</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>456</v>
-      </c>
-      <c r="I17" s="7">
-        <v>307918</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>877</v>
-      </c>
-      <c r="N17" s="7">
-        <v>610821</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
